--- a/tests/data/original.xlsx
+++ b/tests/data/original.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">20.933.519,00</t>
   </si>
   <si>
-    <t xml:space="preserve">Pago tarjeta </t>
+    <t xml:space="preserve">Pago tarjeta</t>
   </si>
   <si>
     <t xml:space="preserve">4986206</t>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
